--- a/myData/JHL beta gal data 3.4.xlsx
+++ b/myData/JHL beta gal data 3.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylee/Desktop/research/Jenny_MutantSensitivity/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F569DB96-6B81-A046-AAD3-B7022F602393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1A462-81B6-144A-A002-FAEFB464930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="22040" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79:I135"/>
     </sheetView>
   </sheetViews>
@@ -3607,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4623,7 +4623,7 @@
         <v>101</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -4785,7 +4785,7 @@
         <v>101</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -4806,7 +4806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
